--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/22.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/22.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2717879540547528</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600521554115428</v>
+        <v>-1.599449647093822</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1512499725346253</v>
+        <v>0.1522337344854382</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2451116524957074</v>
+        <v>-0.2453949759375416</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2853470968345872</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533180294048821</v>
+        <v>-1.531475631340452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000030579833175</v>
+        <v>0.1005476685992875</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.248475331357927</v>
+        <v>-0.2487712469527315</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3004238919034042</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.488789806789899</v>
+        <v>-1.486205267392723</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09578940879559553</v>
+        <v>0.09622856013043843</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2583507273249675</v>
+        <v>-0.2586167365564673</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3053913034547663</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.558238678459928</v>
+        <v>-1.555750154229151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1227948548597514</v>
+        <v>0.122912906293849</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354550451865277</v>
+        <v>-0.2354629152821342</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.300629453237563</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.592446836023155</v>
+        <v>-1.590476164083287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079439844502794</v>
+        <v>0.1076039963200785</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2611981279154005</v>
+        <v>-0.2612311823169478</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2938029310989106</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479142643595447</v>
+        <v>-1.477371872083983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1211610230118413</v>
+        <v>0.1203488291452502</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530289686758499</v>
+        <v>-0.2530210985802434</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2928792473515749</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264196953419307</v>
+        <v>-1.263217126516297</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1580292728900673</v>
+        <v>0.1566740424266274</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2590385736809759</v>
+        <v>-0.2590590359295528</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2959105350717783</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006407249770923</v>
+        <v>-1.006310447594963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1798798063319635</v>
+        <v>0.1780681103233464</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2562730220848506</v>
+        <v>-0.2563375568688239</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2983155746843848</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5935412472441915</v>
+        <v>-0.5939772505407919</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1688931528652847</v>
+        <v>0.1668658162370494</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1647469582194582</v>
+        <v>-0.1645171514277483</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2997080710724914</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2201067847347247</v>
+        <v>-0.2212211902726056</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1387569827688617</v>
+        <v>0.136816217192298</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1288797845023794</v>
+        <v>-0.1288325639287404</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2979574434004027</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2412555339288412</v>
+        <v>0.2398278985858215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1034847882796346</v>
+        <v>0.1021437239882864</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03873885746373165</v>
+        <v>-0.03868848885185003</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2838680537856462</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7661373942324964</v>
+        <v>0.7638251601433056</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005730102470934928</v>
+        <v>-0.006229066532387246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05508842235700235</v>
+        <v>0.05504907187896983</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2486714562881709</v>
       </c>
       <c r="E14" t="n">
-        <v>1.311163551250558</v>
+        <v>1.308383833482341</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.229928664051641</v>
+        <v>-0.2308085407404481</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590807176630962</v>
+        <v>0.1588776691964484</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1900139089544449</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872674410526001</v>
+        <v>1.869803399648749</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.44164210596219</v>
+        <v>-0.4425330007848462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292696052832069</v>
+        <v>0.2924882823080573</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1110698873851224</v>
       </c>
       <c r="E16" t="n">
-        <v>2.344743207252654</v>
+        <v>2.341439341117044</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6663207433748928</v>
+        <v>-0.6668322995893156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4369486092227918</v>
+        <v>0.4367675970238422</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.02461548885680331</v>
       </c>
       <c r="E17" t="n">
-        <v>2.800094346891973</v>
+        <v>2.796415864205493</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8798199099785574</v>
+        <v>-0.8796837573245649</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5560247297683102</v>
+        <v>0.555584004414346</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.05709281812557853</v>
       </c>
       <c r="E18" t="n">
-        <v>3.223247351385965</v>
+        <v>3.219789231376467</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207899011507745</v>
+        <v>-1.207725082394841</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6774870633017203</v>
+        <v>0.676967636991691</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1341710523598903</v>
       </c>
       <c r="E19" t="n">
-        <v>3.597569560679845</v>
+        <v>3.594220047989717</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507031901396213</v>
+        <v>-1.50632674082987</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8384730169709907</v>
+        <v>0.8379882190816301</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.213600144308283</v>
       </c>
       <c r="E20" t="n">
-        <v>3.722678896517309</v>
+        <v>3.718414878717705</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842799299323394</v>
+        <v>-1.842109091938703</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014634088988721</v>
+        <v>1.014161883252331</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3011387147679138</v>
       </c>
       <c r="E21" t="n">
-        <v>3.97270711187856</v>
+        <v>3.968524943073263</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079407427656434</v>
+        <v>-2.078411860562212</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182399343013434</v>
+        <v>1.181988524022774</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.396829989453562</v>
       </c>
       <c r="E22" t="n">
-        <v>4.177653845586637</v>
+        <v>4.173267054295572</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375016875741871</v>
+        <v>-2.374590316559998</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322647594759568</v>
+        <v>1.32214233462163</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4962552402815987</v>
       </c>
       <c r="E23" t="n">
-        <v>4.402752746104727</v>
+        <v>4.398694924810013</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507098329277136</v>
+        <v>-2.506484461819829</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493658476212402</v>
+        <v>1.493305895929231</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5923649986820699</v>
       </c>
       <c r="E24" t="n">
-        <v>4.530528470333674</v>
+        <v>4.526593422530422</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621913580061293</v>
+        <v>-2.62137683954093</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59754688625649</v>
+        <v>1.597162825590893</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6783408014914174</v>
       </c>
       <c r="E25" t="n">
-        <v>4.671519659105062</v>
+        <v>4.668067835172049</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.81789233982576</v>
+        <v>-2.817944282456763</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660739031919349</v>
+        <v>1.660359693311115</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.748796014075691</v>
       </c>
       <c r="E26" t="n">
-        <v>4.784757742729676</v>
+        <v>4.781771828456568</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907823922321275</v>
+        <v>-2.907909706363386</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703835675460562</v>
+        <v>1.703629478955671</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7996565197592868</v>
       </c>
       <c r="E27" t="n">
-        <v>4.894770661174745</v>
+        <v>4.892639439284504</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980409814100056</v>
+        <v>-2.980866279645233</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754174380978879</v>
+        <v>1.75413975255821</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8293428395837267</v>
       </c>
       <c r="E28" t="n">
-        <v>4.894122165296769</v>
+        <v>4.892132605127445</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.06944499270599</v>
+        <v>-3.070208391979821</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795135080572487</v>
+        <v>1.795257854063948</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8394590453042085</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902818620941956</v>
+        <v>4.901180067036681</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083097247554591</v>
+        <v>-3.084033001922205</v>
       </c>
       <c r="G29" t="n">
-        <v>1.726408683679135</v>
+        <v>1.726323686646585</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8331788995242183</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844450843885883</v>
+        <v>4.842772939502576</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072844086998439</v>
+        <v>-3.073888448685422</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690240872309888</v>
+        <v>1.690261334558465</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8142378324772477</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719048740491857</v>
+        <v>4.717614809072352</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061290786648092</v>
+        <v>-3.06264444309241</v>
       </c>
       <c r="G31" t="n">
-        <v>1.631482738511733</v>
+        <v>1.631520514970644</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7857973442910137</v>
       </c>
       <c r="E32" t="n">
-        <v>4.63845738746214</v>
+        <v>4.637376036325807</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.022384969017342</v>
+        <v>-3.023764596777162</v>
       </c>
       <c r="G32" t="n">
-        <v>1.593914050124528</v>
+        <v>1.594115524572055</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7504158018950303</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560190860674585</v>
+        <v>4.559921703404843</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.953277659496635</v>
+        <v>-2.954739136250763</v>
       </c>
       <c r="G33" t="n">
-        <v>1.564550723416664</v>
+        <v>1.565125240395939</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7095725021306224</v>
       </c>
       <c r="E34" t="n">
-        <v>4.35767913454716</v>
+        <v>4.357084155319309</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.881054579125314</v>
+        <v>-2.882732483508621</v>
       </c>
       <c r="G34" t="n">
-        <v>1.514150631152616</v>
+        <v>1.514937640713266</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6639366478156149</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132858835413541</v>
+        <v>4.132454312499366</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.849304252419997</v>
+        <v>-2.851222194719302</v>
       </c>
       <c r="G35" t="n">
-        <v>1.393122726896685</v>
+        <v>1.393788536984995</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.614487954745232</v>
       </c>
       <c r="E36" t="n">
-        <v>3.981595597856544</v>
+        <v>3.981538933168177</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.824030227389272</v>
+        <v>-2.826091405428615</v>
       </c>
       <c r="G36" t="n">
-        <v>1.366633559104315</v>
+        <v>1.367548064213791</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5618531641877615</v>
       </c>
       <c r="E37" t="n">
-        <v>3.785590866776576</v>
+        <v>3.785803359357952</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.760261990728017</v>
+        <v>-2.762342056996816</v>
       </c>
       <c r="G37" t="n">
-        <v>1.27959344973463</v>
+        <v>1.280377311257038</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5073119059055404</v>
       </c>
       <c r="E38" t="n">
-        <v>3.715602106547941</v>
+        <v>3.716486705294112</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728953963395786</v>
+        <v>-2.731303186934327</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236380328778441</v>
+        <v>1.237463253933896</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4522535729263944</v>
       </c>
       <c r="E39" t="n">
-        <v>3.505341484286352</v>
+        <v>3.506504684416994</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.746296506074277</v>
+        <v>-2.748842482002981</v>
       </c>
       <c r="G39" t="n">
-        <v>1.161142214780268</v>
+        <v>1.162195233572418</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3977799046682409</v>
       </c>
       <c r="E40" t="n">
-        <v>3.259451365195002</v>
+        <v>3.260636601593341</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.711451657776483</v>
+        <v>-2.714186515999743</v>
       </c>
       <c r="G40" t="n">
-        <v>1.097010379701993</v>
+        <v>1.098068120551507</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3450898991723297</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087389038969139</v>
+        <v>3.088774175795883</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.650693732684716</v>
+        <v>-2.653286142177498</v>
       </c>
       <c r="G41" t="n">
-        <v>1.065035755271891</v>
+        <v>1.066183215211319</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2952700526602452</v>
       </c>
       <c r="E42" t="n">
-        <v>2.973167193393711</v>
+        <v>2.975180363849855</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.619799672381387</v>
+        <v>-2.622515642375191</v>
       </c>
       <c r="G42" t="n">
-        <v>0.98094220969728</v>
+        <v>0.9820030985850365</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2482223117903308</v>
       </c>
       <c r="E43" t="n">
-        <v>2.839640003295532</v>
+        <v>2.842060844704092</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.602923826372361</v>
+        <v>-2.60585071492842</v>
       </c>
       <c r="G43" t="n">
-        <v>0.928846898839591</v>
+        <v>0.9298841774405282</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2029737482030259</v>
       </c>
       <c r="E44" t="n">
-        <v>2.710719967165399</v>
+        <v>2.713512277086586</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.531247717645692</v>
+        <v>-2.534011695222696</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8647559882584697</v>
+        <v>0.8659475207332943</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1590337805136101</v>
       </c>
       <c r="E45" t="n">
-        <v>2.514142293125277</v>
+        <v>2.516975527543618</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465871620452028</v>
+        <v>-2.468550600996482</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8347079632328395</v>
+        <v>0.8359750486254865</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.115657082740554</v>
       </c>
       <c r="E46" t="n">
-        <v>2.388126322273944</v>
+        <v>2.391222417885543</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.426282678522634</v>
+        <v>-2.429281184948712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7714103582888536</v>
+        <v>0.7726679995667729</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.07219508860345671</v>
       </c>
       <c r="E47" t="n">
-        <v>2.225035905039495</v>
+        <v>2.22809265017306</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.291291650641644</v>
+        <v>-2.293843922646833</v>
       </c>
       <c r="G47" t="n">
-        <v>0.715080935994866</v>
+        <v>0.7163511694257556</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.02818476757752367</v>
       </c>
       <c r="E48" t="n">
-        <v>2.136938054820295</v>
+        <v>2.140366268466488</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.250313636837702</v>
+        <v>-2.253223998192988</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6663587481141244</v>
+        <v>0.6676730540804106</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.01645145275486749</v>
       </c>
       <c r="E49" t="n">
-        <v>1.983623870348244</v>
+        <v>1.987182727581505</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.198409569303251</v>
+        <v>-2.201354559079205</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5919517162119984</v>
+        <v>0.5933525932299559</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.06141463899157192</v>
       </c>
       <c r="E50" t="n">
-        <v>1.890298702627205</v>
+        <v>1.893851263783981</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.150979651121098</v>
+        <v>-2.153929362954416</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5352744356922031</v>
+        <v>0.5366060558688236</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1065157186812962</v>
       </c>
       <c r="E51" t="n">
-        <v>1.766350992901261</v>
+        <v>1.769842167312306</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.100929778111539</v>
+        <v>-2.103952681833997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4902858211671869</v>
+        <v>0.4916379035923842</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1507445919825297</v>
       </c>
       <c r="E52" t="n">
-        <v>1.654649151939036</v>
+        <v>1.657997090610043</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.983032597887875</v>
+        <v>-1.985526631185576</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4546752125668801</v>
+        <v>0.45603044303032</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1932413970976699</v>
       </c>
       <c r="E53" t="n">
-        <v>1.611240852611806</v>
+        <v>1.614998036254351</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.923472501347418</v>
+        <v>-1.925961025578194</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3835264002458464</v>
+        <v>0.3846533979366978</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2331986208606362</v>
       </c>
       <c r="E54" t="n">
-        <v>1.567742834194662</v>
+        <v>1.571980093669203</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.913009996248132</v>
+        <v>-1.91564569126675</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3492080613441276</v>
+        <v>0.3503523732453132</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2707761671585046</v>
       </c>
       <c r="E55" t="n">
-        <v>1.512625406624075</v>
+        <v>1.517114509158025</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.848039995987764</v>
+        <v>-1.850511993017767</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3222640020257024</v>
+        <v>0.3235153472271364</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3067700171142462</v>
       </c>
       <c r="E56" t="n">
-        <v>1.454695206883725</v>
+        <v>1.45951800147139</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.786331363346731</v>
+        <v>-1.788560961432054</v>
       </c>
       <c r="G56" t="n">
-        <v>0.215033949387093</v>
+        <v>0.2158067927756517</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3414561927694563</v>
       </c>
       <c r="E57" t="n">
-        <v>1.464203856395502</v>
+        <v>1.469298956291153</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.783977417750826</v>
+        <v>-1.786164517319874</v>
       </c>
       <c r="G57" t="n">
-        <v>0.215761146221134</v>
+        <v>0.2166599111393966</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3751742738552469</v>
       </c>
       <c r="E58" t="n">
-        <v>1.449104290964865</v>
+        <v>1.454555119181929</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.769150157628174</v>
+        <v>-1.771301054757431</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2112421373238797</v>
+        <v>0.212191270854024</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.407899679993688</v>
       </c>
       <c r="E59" t="n">
-        <v>1.43727553726829</v>
+        <v>1.443042743328736</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732761196572384</v>
+        <v>-1.734585484733971</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1373875861333301</v>
+        <v>0.1380880246423089</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4393094021304511</v>
       </c>
       <c r="E60" t="n">
-        <v>1.470011986953102</v>
+        <v>1.476528426115287</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.765057707912792</v>
+        <v>-1.767058286215965</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1171457002334033</v>
+        <v>0.1178917852968998</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.468935591936799</v>
       </c>
       <c r="E61" t="n">
-        <v>1.467521888703204</v>
+        <v>1.474368871880862</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.783421789001007</v>
+        <v>-1.785453060677046</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1294230493795486</v>
+        <v>0.1303532946802373</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4959716769667706</v>
       </c>
       <c r="E62" t="n">
-        <v>1.478067816815919</v>
+        <v>1.485369691519633</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.827181881601848</v>
+        <v>-1.829326482654621</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04203193374581314</v>
+        <v>0.04264737522224171</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.51994213688529</v>
       </c>
       <c r="E63" t="n">
-        <v>1.464460421512274</v>
+        <v>1.47205506377255</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.788195001986352</v>
+        <v>-1.789954755363966</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007823776182585293</v>
+        <v>0.008406163257466549</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.54090775932669</v>
       </c>
       <c r="E64" t="n">
-        <v>1.46584713235814</v>
+        <v>1.473685747582218</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815708069217127</v>
+        <v>-1.817504025034531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02241470515672222</v>
+        <v>-0.02181028181414275</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5587789701787781</v>
       </c>
       <c r="E65" t="n">
-        <v>1.475804377319488</v>
+        <v>1.484135660528533</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.841176485609333</v>
+        <v>-1.842972441426737</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0255800576096579</v>
+        <v>-0.02494887594201632</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5739325992831457</v>
       </c>
       <c r="E66" t="n">
-        <v>1.439406759158531</v>
+        <v>1.447541289977413</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.846513197440103</v>
+        <v>-1.848116335915147</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03393495110552195</v>
+        <v>-0.03334154589679159</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5867116253970601</v>
       </c>
       <c r="E67" t="n">
-        <v>1.404847595331253</v>
+        <v>1.41325443145812</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.858371070490421</v>
+        <v>-1.859793983776077</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05299002658798808</v>
+        <v>-0.05238875128365122</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5979778632275143</v>
       </c>
       <c r="E68" t="n">
-        <v>1.354741844642888</v>
+        <v>1.363243121917034</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.888341968579108</v>
+        <v>-1.889609053971755</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06022579248860734</v>
+        <v>-0.05953007603699244</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6083261190145104</v>
       </c>
       <c r="E69" t="n">
-        <v>1.251103703639087</v>
+        <v>1.259198883979937</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.909777747982541</v>
+        <v>-1.910985807658139</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08252806941831678</v>
+        <v>-0.08189216569331131</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6166098183347341</v>
       </c>
       <c r="E70" t="n">
-        <v>1.267523871112496</v>
+        <v>1.276102275323585</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.91504048091461</v>
+        <v>-1.915840869637791</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05140341531371698</v>
+        <v>-0.05060223958097494</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6204320036410812</v>
       </c>
       <c r="E71" t="n">
-        <v>1.260351065976729</v>
+        <v>1.268979838799699</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.949537470986596</v>
+        <v>-1.950169439663799</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07110069059767379</v>
+        <v>-0.07016414922049988</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6170764553883217</v>
       </c>
       <c r="E72" t="n">
-        <v>1.24401589553587</v>
+        <v>1.252838272710761</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978959036401949</v>
+        <v>-1.979450917377356</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1060785435112177</v>
+        <v>-0.1052931079696886</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.604681976673943</v>
       </c>
       <c r="E73" t="n">
-        <v>1.248846560219142</v>
+        <v>1.257860967726831</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.978724507552875</v>
+        <v>-1.979132178505292</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09342657781420274</v>
+        <v>-0.09256401533572997</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5824390988345397</v>
       </c>
       <c r="E74" t="n">
-        <v>1.243480729034628</v>
+        <v>1.252838272710761</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.986780337415692</v>
+        <v>-1.987004635140478</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07438566850382833</v>
+        <v>-0.07334681588376987</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.550833242592612</v>
       </c>
       <c r="E75" t="n">
-        <v>1.187972944721959</v>
+        <v>1.197083367396048</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.019514426071822</v>
+        <v>-2.019723770614955</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04643895900513462</v>
+        <v>-0.0452710368171295</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5118276072803283</v>
       </c>
       <c r="E76" t="n">
-        <v>1.22351587050005</v>
+        <v>1.232826193602544</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022922177469438</v>
+        <v>-2.022910372326028</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02657483769431994</v>
+        <v>-0.02525108761330606</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4673078805049538</v>
       </c>
       <c r="E77" t="n">
-        <v>1.158502584713847</v>
+        <v>1.167639765712997</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.020410829961403</v>
+        <v>-2.020317962833246</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02816774504507623</v>
+        <v>-0.02696047237903861</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4189713493135737</v>
       </c>
       <c r="E78" t="n">
-        <v>1.178368280043783</v>
+        <v>1.187400001761806</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031041755106668</v>
+        <v>-2.030892223290144</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02296561184917746</v>
+        <v>-0.0216938043991665</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3690193899550292</v>
       </c>
       <c r="E79" t="n">
-        <v>1.164568854407339</v>
+        <v>1.17339123158223</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.00789501691838</v>
+        <v>-2.007691968451732</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0445690242890294</v>
+        <v>-0.04345461875114851</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3204819877296483</v>
       </c>
       <c r="E80" t="n">
-        <v>1.143802820140019</v>
+        <v>1.151970405360449</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969850974756542</v>
+        <v>-1.969721905188596</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02824644600114127</v>
+        <v>-0.02708324587050006</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2752112695707544</v>
       </c>
       <c r="E81" t="n">
-        <v>1.168640841874144</v>
+        <v>1.176345665472911</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923158484532718</v>
+        <v>-1.922911363530674</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008396490862418294</v>
+        <v>-0.00722069857880668</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2340443260364808</v>
       </c>
       <c r="E82" t="n">
-        <v>1.227493416819577</v>
+        <v>1.235140001710856</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951242133694965</v>
+        <v>-1.951403470654899</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01933930007402113</v>
+        <v>0.02062212565788119</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1974249663647747</v>
       </c>
       <c r="E83" t="n">
-        <v>1.314462695328804</v>
+        <v>1.321737811707456</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846603703539577</v>
+        <v>-1.846706014782462</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01188317149641977</v>
+        <v>0.01293933832681253</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1651058055751784</v>
       </c>
       <c r="E84" t="n">
-        <v>1.308989830844042</v>
+        <v>1.315363034266188</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785721430937228</v>
+        <v>-1.786067715143914</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02240076726495096</v>
+        <v>0.02337823313927869</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1380847677467869</v>
       </c>
       <c r="E85" t="n">
-        <v>1.418026857433904</v>
+        <v>1.423858598278323</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757683428329498</v>
+        <v>-1.758495622196089</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01625107455802918</v>
+        <v>0.01708215665407594</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1167185833243287</v>
       </c>
       <c r="E86" t="n">
-        <v>1.663019785626114</v>
+        <v>1.668686254462796</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653259064774607</v>
+        <v>-1.654272733088725</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03217385198910693</v>
+        <v>0.03289790078490525</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09966719372738496</v>
       </c>
       <c r="E87" t="n">
-        <v>1.597664937690588</v>
+        <v>1.601780997692789</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533406165792727</v>
+        <v>-1.534693713433951</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05301858721249194</v>
+        <v>0.05368439730080213</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08524061366182763</v>
       </c>
       <c r="E88" t="n">
-        <v>1.745060810266548</v>
+        <v>1.748877806635702</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.33367494444308</v>
+        <v>-1.334842866631085</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08970267685352577</v>
+        <v>0.09034330263589516</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07417271544293101</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912464039893361</v>
+        <v>1.915863921195371</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158774661741511</v>
+        <v>-1.15981351436157</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1134184229541632</v>
+        <v>0.1140385864879557</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06810546401963884</v>
       </c>
       <c r="E90" t="n">
-        <v>1.933582654443853</v>
+        <v>1.93610895513354</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9185533725155247</v>
+        <v>-0.9194363972425744</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1422371390460575</v>
+        <v>0.1428714687519417</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.06918166390712813</v>
       </c>
       <c r="E91" t="n">
-        <v>1.972012331290409</v>
+        <v>1.974253734519141</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6665568462430879</v>
+        <v>-0.6674288528362885</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09542266234033248</v>
+        <v>0.09570598578216659</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.07982307063769851</v>
       </c>
       <c r="E92" t="n">
-        <v>1.987687987719442</v>
+        <v>1.989872726259808</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4612842905769013</v>
+        <v>-0.4621956476481344</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1066517147516916</v>
+        <v>0.1070137391495907</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.09988326540561646</v>
       </c>
       <c r="E93" t="n">
-        <v>1.961116970932766</v>
+        <v>1.963241896746521</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2406902327839738</v>
+        <v>-0.2413859492355887</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09184491687761601</v>
+        <v>0.09215342462539095</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1252197784448186</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848557289549432</v>
+        <v>1.850472870820055</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05763338299582511</v>
+        <v>-0.0583180813135909</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06658033596161866</v>
+        <v>0.06685264126960369</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1505861187653053</v>
       </c>
       <c r="E95" t="n">
-        <v>1.79730565294076</v>
+        <v>1.798988279381431</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07361305339559014</v>
+        <v>0.07277410120393688</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05410151236794682</v>
+        <v>0.05448242499530159</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1695751549633017</v>
       </c>
       <c r="E96" t="n">
-        <v>1.669311140053952</v>
+        <v>1.670831642525129</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1468143866507999</v>
+        <v>0.1459848785738745</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005366504053914469</v>
+        <v>-0.005147715396053674</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1778694939460535</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503798307391821</v>
+        <v>1.504706516424812</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1510280358385219</v>
+        <v>0.1498790018799724</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02059513905249863</v>
+        <v>-0.02034014795484791</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1805152826508848</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390269030229766</v>
+        <v>1.391000949121171</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1790455761976741</v>
+        <v>0.1780303338644352</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0587556586293125</v>
+        <v>-0.05839206021229204</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1843148080376313</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250736957183824</v>
+        <v>1.251078519333147</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1820802850635418</v>
+        <v>0.181028840290513</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09836584981684431</v>
+        <v>-0.0981297469486492</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1984791748045339</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091683898995511</v>
+        <v>1.09174371172212</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2379028732004707</v>
+        <v>0.2373393743550451</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1454778161364952</v>
+        <v>-0.1454117073334006</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.221834974169019</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9101412556020537</v>
+        <v>0.9095084999152908</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2200062757912819</v>
+        <v>0.2193357436456078</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1712051586741549</v>
+        <v>-0.1710981253739065</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2601390913254437</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8501679790422548</v>
+        <v>0.8497791963192936</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2581195747944567</v>
+        <v>0.2577134778611612</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2091988322241109</v>
+        <v>-0.2091484636122293</v>
       </c>
     </row>
   </sheetData>
